--- a/detailed_channel_info/kqt-1_CAEEL.xlsx
+++ b/detailed_channel_info/kqt-1_CAEEL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
-  </si>
-  <si>
     <t>REFERENCES:</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>https://chopen.herokuapp.com/api/graph_data/83?format=json</t>
+  </si>
+  <si>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -567,23 +567,23 @@
     <col min="1" max="16384" width="59.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -591,36 +591,36 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="288" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -639,44 +639,44 @@
         <v>15797864</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -684,39 +684,39 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -774,27 +774,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
@@ -806,17 +806,17 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="304" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
